--- a/data/out/wiki/men/uefa/eu/tb_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/tb_eu_uefa_men.xlsx
@@ -2059,10 +2059,10 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2116,13 +2116,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3943,10 +3943,10 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -4096,13 +4096,13 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
         <v>1</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -5146,13 +5146,13 @@
         <v>2</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
@@ -5203,10 +5203,10 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -5536,13 +5536,13 @@
         <v>2</v>
       </c>
       <c r="F170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
         <v>2</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">

--- a/data/out/wiki/men/uefa/eu/tb_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/tb_eu_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -537,7 +537,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -567,7 +567,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -597,7 +597,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -606,14 +606,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Soviet Union</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -622,12 +622,12 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -636,28 +636,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -666,14 +666,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -682,12 +682,12 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -717,7 +717,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -726,14 +726,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -742,12 +742,12 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -763,21 +763,21 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -786,28 +786,28 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -816,28 +816,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -856,18 +856,18 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -876,17 +876,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -906,11 +906,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -946,27 +946,27 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Group 1</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -987,16 +987,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Group 1</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1017,16 +1017,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Group 1</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1039,24 +1039,24 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Group 1</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1066,27 +1066,27 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Soviet Union</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1096,87 +1096,87 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1197,16 +1197,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Group 1</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1227,16 +1227,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Group 1</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1246,10 +1246,10 @@
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>4</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Group 1</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1287,46 +1287,46 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1347,29 +1347,29 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>2</v>
@@ -1377,16 +1377,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1399,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1411,16 +1411,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1446,14 +1446,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1476,14 +1476,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1492,12 +1492,12 @@
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1506,58 +1506,58 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1566,28 +1566,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1596,28 +1596,28 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1626,41 +1626,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1686,28 +1686,28 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1716,28 +1716,28 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1746,58 +1746,58 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1827,7 +1827,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1836,28 +1836,28 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -1891,16 +1891,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1926,28 +1926,28 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1956,28 +1956,28 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1986,41 +1986,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2046,28 +2046,28 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2076,14 +2076,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -2092,12 +2092,12 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2106,58 +2106,58 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2182,12 +2182,12 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2196,28 +2196,28 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2236,48 +2236,48 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2286,14 +2286,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2302,12 +2302,12 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2316,14 +2316,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
@@ -2332,12 +2332,12 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2346,23 +2346,23 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -2371,33 +2371,33 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2406,14 +2406,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2422,12 +2422,12 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2436,11 +2436,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
@@ -2452,12 +2452,12 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2466,58 +2466,58 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2526,28 +2526,28 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D70" t="n">
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2566,18 +2566,18 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2596,48 +2596,48 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="n">
         <v>3</v>
-      </c>
-      <c r="E73" t="n">
-        <v>2</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2646,14 +2646,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -2662,12 +2662,12 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2683,21 +2683,21 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2706,41 +2706,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2766,28 +2766,28 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2817,7 +2817,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2826,23 +2826,23 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -2851,16 +2851,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2886,17 +2886,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2916,17 +2916,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2956,48 +2956,48 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3036,14 +3036,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>2</v>
@@ -3052,12 +3052,12 @@
         <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3066,32 +3066,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3126,28 +3126,28 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3177,7 +3177,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3186,41 +3186,41 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3246,17 +3246,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3276,17 +3276,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -3331,33 +3331,33 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3366,14 +3366,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D98" t="n">
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3382,12 +3382,12 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3396,28 +3396,28 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3447,37 +3447,37 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3486,28 +3486,28 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3516,28 +3516,28 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3546,41 +3546,41 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3606,28 +3606,28 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -3646,18 +3646,18 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Northern Ireland</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
@@ -3687,37 +3687,37 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -3747,7 +3747,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3756,28 +3756,28 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -3811,28 +3811,28 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -3841,19 +3841,19 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3871,28 +3871,28 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3901,12 +3901,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -3931,25 +3931,25 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>2</v>
@@ -3961,19 +3961,19 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D118" t="n">
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3991,19 +3991,19 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -4021,28 +4021,28 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -4051,16 +4051,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
@@ -4077,23 +4077,23 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4107,26 +4107,26 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Northern Ireland</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -4156,10 +4156,10 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -4167,53 +4167,53 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D126" t="n">
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4222,34 +4222,34 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D127" t="n">
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
         <v>2</v>
@@ -4257,23 +4257,23 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
         <v>1</v>
@@ -4282,58 +4282,58 @@
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4347,29 +4347,29 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
         <v>2</v>
@@ -4377,29 +4377,29 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D132" t="n">
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
         <v>2</v>
@@ -4407,20 +4407,20 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>1</v>
@@ -4437,20 +4437,20 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
@@ -4462,28 +4462,28 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D135" t="n">
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
@@ -4492,37 +4492,37 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -4531,16 +4531,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>1</v>
@@ -4561,16 +4561,16 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -4591,19 +4591,19 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -4621,28 +4621,28 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D140" t="n">
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -4651,16 +4651,16 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>1</v>
@@ -4681,19 +4681,19 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
@@ -4711,28 +4711,28 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -4741,28 +4741,28 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D144" t="n">
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
@@ -4771,102 +4771,102 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -4876,40 +4876,40 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>2</v>
@@ -4917,53 +4917,53 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -4977,113 +4977,113 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D152" t="n">
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D154" t="n">
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D155" t="n">
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
@@ -5092,157 +5092,157 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D158" t="n">
         <v>2</v>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
@@ -5251,28 +5251,28 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -5281,25 +5281,25 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>3</v>
@@ -5311,25 +5311,25 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D163" t="n">
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
         <v>2</v>
@@ -5341,16 +5341,16 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
@@ -5371,28 +5371,28 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -5401,28 +5401,28 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -5431,12 +5431,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -5446,13 +5446,13 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -5491,477 +5491,27 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Group C</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>0</v>
-      </c>
-      <c r="E170" t="n">
-        <v>2</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0</v>
-      </c>
-      <c r="H170" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Group C</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>0</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1</v>
-      </c>
-      <c r="F171" t="n">
-        <v>2</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0</v>
-      </c>
-      <c r="H171" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Group C</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>0</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0</v>
-      </c>
-      <c r="G172" t="n">
-        <v>1</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>2</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1</v>
-      </c>
-      <c r="F173" t="n">
-        <v>3</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0</v>
-      </c>
-      <c r="H173" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v>1</v>
-      </c>
-      <c r="E174" t="n">
-        <v>2</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0</v>
-      </c>
-      <c r="H174" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>3</v>
-      </c>
-      <c r="E175" t="n">
-        <v>2</v>
-      </c>
-      <c r="F175" t="n">
-        <v>3</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0</v>
-      </c>
-      <c r="H175" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0</v>
-      </c>
-      <c r="G176" t="n">
-        <v>1</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>2</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0</v>
-      </c>
-      <c r="G177" t="n">
-        <v>1</v>
-      </c>
-      <c r="H177" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>0</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>1</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1</v>
-      </c>
-      <c r="G179" t="n">
-        <v>1</v>
-      </c>
-      <c r="H179" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>0</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1</v>
-      </c>
-      <c r="G180" t="n">
-        <v>1</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>1</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>0</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>0</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1</v>
-      </c>
-      <c r="G183" t="n">
-        <v>1</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="D184" t="n">
-        <v>0</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1</v>
-      </c>
-      <c r="G184" t="n">
-        <v>1</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/out/wiki/men/uefa/eu/tb_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/tb_eu_uefa_men.xlsx
@@ -1246,13 +1246,13 @@
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1810,10 +1810,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -5290,10 +5290,10 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>

--- a/data/out/wiki/men/uefa/eu/tb_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/tb_eu_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -507,7 +507,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -516,28 +516,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -546,28 +546,28 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -597,7 +597,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Soviet Union</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -616,18 +616,18 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -657,7 +657,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -666,14 +666,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -682,12 +682,12 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -717,7 +717,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -726,14 +726,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -742,12 +742,12 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -766,18 +766,18 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -786,28 +786,28 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -816,28 +816,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Soviet Union</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -867,7 +867,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -876,17 +876,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -906,28 +906,28 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -946,34 +946,34 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -982,21 +982,21 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1006,87 +1006,87 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1096,87 +1096,87 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1231,28 +1231,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1261,28 +1261,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1309,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1336,13 +1336,13 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1351,28 +1351,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1381,28 +1381,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1437,16 +1437,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1467,16 +1467,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1486,34 +1486,34 @@
         <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>2</v>
@@ -1522,21 +1522,21 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1549,31 +1549,31 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1582,31 +1582,31 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1617,23 +1617,23 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -1642,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1696,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1711,28 +1711,28 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1741,28 +1741,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1771,12 +1771,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1786,13 +1786,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1801,19 +1801,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1831,28 +1831,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1861,19 +1861,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1917,16 +1917,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1947,16 +1947,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1977,20 +1977,20 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -2002,21 +2002,21 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2037,23 +2037,23 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D54" t="n">
         <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2062,81 +2062,81 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2161,28 +2161,28 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2191,19 +2191,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -2221,25 +2221,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>3</v>
@@ -2251,12 +2251,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2266,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2281,19 +2281,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -2311,19 +2311,19 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -2341,12 +2341,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2356,13 +2356,13 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -2371,12 +2371,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2397,23 +2397,23 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2422,81 +2422,81 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2506,27 +2506,27 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2547,16 +2547,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2566,57 +2566,57 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2626,13 +2626,13 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2671,12 +2671,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2701,12 +2701,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2806,13 +2806,13 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2821,28 +2821,28 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2866,34 +2866,34 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D82" t="n">
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -2902,31 +2902,31 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2937,29 +2937,29 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>2</v>
@@ -2967,16 +2967,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2986,27 +2986,27 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -3027,92 +3027,92 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3121,19 +3121,19 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D90" t="n">
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -3151,22 +3151,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -3181,25 +3181,25 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>2</v>
@@ -3211,12 +3211,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -3226,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -3241,19 +3241,19 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D94" t="n">
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3271,28 +3271,28 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -3301,28 +3301,28 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -3331,42 +3331,42 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -3387,16 +3387,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -3406,40 +3406,40 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>2</v>
@@ -3447,16 +3447,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -3466,27 +3466,27 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -3507,16 +3507,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -3537,16 +3537,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -3567,16 +3567,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -3601,12 +3601,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -3661,12 +3661,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Northern Ireland</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3679,10 +3679,10 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -3691,12 +3691,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -3721,12 +3721,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -3751,12 +3751,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -3799,10 +3799,10 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -3826,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3841,12 +3841,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -3871,12 +3871,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -3901,12 +3901,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Northern Ireland</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -3919,10 +3919,10 @@
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3931,12 +3931,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3961,19 +3961,19 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D118" t="n">
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -3991,28 +3991,28 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -4021,28 +4021,28 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -4051,12 +4051,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -4066,22 +4066,22 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4107,16 +4107,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -4137,16 +4137,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -4159,24 +4159,24 @@
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -4186,27 +4186,27 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -4227,23 +4227,23 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="D127" t="n">
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
@@ -4252,21 +4252,21 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -4276,10 +4276,10 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
         <v>3</v>
@@ -4287,16 +4287,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -4306,13 +4306,13 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -4321,12 +4321,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -4351,12 +4351,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -4366,13 +4366,13 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4381,19 +4381,19 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D132" t="n">
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -4441,19 +4441,19 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D134" t="n">
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4462,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -4471,12 +4471,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -4501,16 +4501,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
         <v>1</v>
@@ -4519,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>3</v>
@@ -4531,12 +4531,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -4546,13 +4546,13 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -4561,19 +4561,19 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -4591,19 +4591,19 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -4651,12 +4651,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -4681,28 +4681,28 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -4711,28 +4711,28 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -4741,28 +4741,28 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -4786,27 +4786,27 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -4827,16 +4827,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -4846,40 +4846,40 @@
         <v>2</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D148" t="n">
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
         <v>2</v>
@@ -4887,16 +4887,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -4906,87 +4906,87 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E151" t="n">
         <v>2</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -4999,24 +4999,24 @@
         <v>2</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -5026,13 +5026,13 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
@@ -5041,19 +5041,19 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -5071,22 +5071,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" t="n">
         <v>2</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -5101,28 +5101,28 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -5131,12 +5131,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -5146,13 +5146,13 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -5161,28 +5161,28 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -5191,22 +5191,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
         <v>2</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -5221,28 +5221,28 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -5266,13 +5266,13 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -5281,28 +5281,28 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D162" t="n">
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -5311,19 +5311,19 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D163" t="n">
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -5341,25 +5341,25 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
         <v>3</v>
@@ -5371,28 +5371,28 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -5401,28 +5401,28 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167">
@@ -5431,19 +5431,19 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
@@ -5461,28 +5461,28 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169">
@@ -5491,27 +5491,267 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+      <c r="H170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
           <t>Group F</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="D169" t="n">
-        <v>0</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1</v>
-      </c>
-      <c r="G169" t="n">
-        <v>1</v>
-      </c>
-      <c r="H169" t="n">
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/out/wiki/men/uefa/eu/tb_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/tb_eu_uefa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1006,13 +1006,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1159,10 +1159,10 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1336,13 +1336,13 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1486,10 +1486,10 @@
         <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>3</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -3283,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
         <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
         <v>5</v>
@@ -3343,16 +3343,16 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4243,16 +4243,16 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -4273,16 +4273,16 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -4716,17 +4716,17 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -4746,14 +4746,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -4810,10 +4810,10 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -4840,10 +4840,10 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">

--- a/data/out/wiki/men/uefa/eu/tb_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/tb_eu_uefa_men.xlsx
@@ -1006,13 +1006,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1159,10 +1159,10 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1243,16 +1243,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1273,16 +1273,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1336,13 +1336,13 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -4243,16 +4243,16 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -4273,16 +4273,16 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -4489,10 +4489,10 @@
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -4516,10 +4516,10 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
         <v>3</v>
@@ -4536,23 +4536,23 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D137" t="n">
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -4716,17 +4716,17 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -4746,14 +4746,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -4810,10 +4810,10 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
@@ -4840,10 +4840,10 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
